--- a/data/trans_dic/P22$ss-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22$ss-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,15; 95,08</t>
+          <t>87,59; 94,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,51; 96,8</t>
+          <t>91,06; 96,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,33; 99,1</t>
+          <t>95,31; 99,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>94,43; 98,41</t>
+          <t>94,29; 98,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,58; 98,38</t>
+          <t>93,33; 98,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,39; 98,56</t>
+          <t>94,44; 98,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,67; 98,8</t>
+          <t>94,55; 98,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>95,16; 98,11</t>
+          <t>95,13; 98,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,44; 95,8</t>
+          <t>91,55; 95,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93,54; 97,13</t>
+          <t>93,65; 97,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>95,87; 98,6</t>
+          <t>95,73; 98,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,45; 97,91</t>
+          <t>95,31; 97,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>93,83; 97,43</t>
+          <t>93,8; 97,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,7; 96,02</t>
+          <t>90,93; 96,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,66; 99,17</t>
+          <t>96,63; 99,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>94,2; 98,25</t>
+          <t>94,09; 98,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>93,66; 97,23</t>
+          <t>93,59; 97,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>91,49; 96,46</t>
+          <t>91,6; 96,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>94,71; 98,01</t>
+          <t>94,87; 98,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,64; 98,29</t>
+          <t>95,99; 98,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>94,4; 97,0</t>
+          <t>94,26; 96,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>92,1; 95,51</t>
+          <t>92,15; 95,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>96,25; 98,3</t>
+          <t>96,35; 98,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>95,73; 98,08</t>
+          <t>95,56; 97,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>94,05; 98,28</t>
+          <t>94,24; 98,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,61; 97,05</t>
+          <t>91,46; 97,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,1; 95,02</t>
+          <t>89,06; 95,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,93; 98,68</t>
+          <t>94,81; 98,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>95,77; 98,92</t>
+          <t>95,8; 98,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,14; 98,79</t>
+          <t>94,61; 98,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>94,34; 98,09</t>
+          <t>94,0; 98,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>97,44; 99,34</t>
+          <t>97,37; 99,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>95,67; 98,28</t>
+          <t>95,75; 98,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>94,33; 97,56</t>
+          <t>94,1; 97,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>92,6; 96,13</t>
+          <t>92,65; 95,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>96,62; 98,81</t>
+          <t>96,43; 98,8</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,77; 96,02</t>
+          <t>90,5; 95,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,95; 95,51</t>
+          <t>89,61; 95,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,37; 97,23</t>
+          <t>92,5; 97,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,98; 95,94</t>
+          <t>90,17; 96,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,89; 97,88</t>
+          <t>93,61; 97,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,48; 96,95</t>
+          <t>92,66; 97,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,31; 99,12</t>
+          <t>95,22; 98,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,04; 98,27</t>
+          <t>95,28; 98,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,18; 96,48</t>
+          <t>92,77; 96,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,99; 95,75</t>
+          <t>92,14; 95,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>94,84; 97,69</t>
+          <t>94,68; 97,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,86; 97,07</t>
+          <t>93,78; 97,05</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,55; 97,51</t>
+          <t>89,98; 97,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,92; 99,08</t>
+          <t>95,07; 99,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90,63; 97,63</t>
+          <t>90,59; 97,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>93,59; 98,3</t>
+          <t>94,13; 98,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,69; 94,62</t>
+          <t>86,21; 94,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>94,49; 98,92</t>
+          <t>94,63; 99,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>96,01; 99,6</t>
+          <t>95,98; 99,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>96,07; 98,75</t>
+          <t>95,72; 98,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,85; 95,09</t>
+          <t>90,11; 95,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>95,56; 98,65</t>
+          <t>95,54; 98,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>94,02; 98,2</t>
+          <t>94,28; 98,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>95,64; 98,08</t>
+          <t>95,65; 98,17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>90,85; 96,34</t>
+          <t>90,88; 96,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,24; 97,65</t>
+          <t>91,57; 97,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,41; 97,49</t>
+          <t>91,3; 97,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>96,0; 98,87</t>
+          <t>96,35; 98,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>94,02; 98,22</t>
+          <t>93,93; 98,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,37; 98,67</t>
+          <t>94,34; 98,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>96,42; 99,63</t>
+          <t>96,75; 99,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>96,12; 98,87</t>
+          <t>96,01; 98,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,39; 97,03</t>
+          <t>93,42; 96,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>94,16; 97,86</t>
+          <t>93,98; 97,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>94,72; 98,2</t>
+          <t>94,8; 98,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>96,75; 98,53</t>
+          <t>96,73; 98,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,19; 98,15</t>
+          <t>95,24; 98,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>93,91; 97,5</t>
+          <t>94,01; 97,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90,84; 95,08</t>
+          <t>90,66; 95,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>93,52; 97,49</t>
+          <t>93,25; 97,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,46; 97,45</t>
+          <t>94,32; 97,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,12; 98,13</t>
+          <t>95,25; 98,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,3; 96,6</t>
+          <t>93,49; 96,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>95,14; 98,74</t>
+          <t>95,22; 98,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>95,29; 97,49</t>
+          <t>95,42; 97,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>95,28; 97,43</t>
+          <t>95,32; 97,51</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>92,74; 95,42</t>
+          <t>92,8; 95,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,14; 97,97</t>
+          <t>95,14; 97,92</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>96,19; 98,45</t>
+          <t>96,16; 98,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>94,17; 97,52</t>
+          <t>94,28; 97,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>93,23; 96,5</t>
+          <t>93,25; 96,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>95,56; 99,06</t>
+          <t>95,68; 98,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>91,79; 95,47</t>
+          <t>91,85; 95,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>94,75; 97,88</t>
+          <t>94,86; 97,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>93,69; 96,86</t>
+          <t>93,58; 96,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>94,73; 97,17</t>
+          <t>94,62; 97,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>94,51; 96,63</t>
+          <t>94,47; 96,57</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>95,08; 97,34</t>
+          <t>95,12; 97,37</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>93,84; 96,27</t>
+          <t>94,01; 96,21</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>95,69; 98,04</t>
+          <t>95,62; 97,99</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>95,01; 96,37</t>
+          <t>94,93; 96,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>94,45; 96,01</t>
+          <t>94,31; 95,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>94,42; 95,91</t>
+          <t>94,27; 95,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>95,78; 97,42</t>
+          <t>95,78; 97,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>94,7; 96,15</t>
+          <t>94,72; 96,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>95,58; 96,97</t>
+          <t>95,61; 97,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>95,83; 97,05</t>
+          <t>95,87; 97,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>96,56; 97,7</t>
+          <t>96,47; 97,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>95,04; 96,13</t>
+          <t>95,06; 96,09</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>95,28; 96,32</t>
+          <t>95,3; 96,31</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>95,37; 96,31</t>
+          <t>95,25; 96,29</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>96,33; 97,33</t>
+          <t>96,34; 97,32</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguridad Social</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>249629</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>278400</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>287205</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>301420</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>251430</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>278580</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>280060</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>280569</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>556980</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>567265</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>581988</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>238304; 257445</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>268398; 285317</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>279997; 290972</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>293673; 306506</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>243443; 256443</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>271262; 283177</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>272051; 284427</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>275530; 283940</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>487889; 510620</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>545034; 566535</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>556665; 573353</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>572875; 587971</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>473000</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>474302</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>493204</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>501239</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>481832</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>494095</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>505923</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>501175</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>954832</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>968397</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>999127</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1002414</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>462521; 480310</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>458779; 484812</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>485632; 498348</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>487760; 508989</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>471627; 490006</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>479775; 504507</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>496274; 512814</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>494297; 505961</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>939777; 966011</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>947613; 983386</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>988225; 1007565</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>987501; 1011933</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>308355</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>307689</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>292853</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>307221</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>327866</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>331453</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>324430</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>344300</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>636221</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>639142</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>617283</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>651521</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>300465; 313319</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>296375; 314589</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>282016; 301054</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>299648; 312122</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>321331; 331756</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>322641; 336856</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>316143; 329824</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>339954; 346846</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>626471; 644066</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>625810; 648122</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>604974; 626772</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>641451; 657199</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>334071</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>347796</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>352469</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>292366</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>356517</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>369788</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>378142</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>461084</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>690589</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>717584</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>730612</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>753450</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>322659; 342053</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>335132; 358146</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>342200; 360090</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>281848; 300428</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>346928; 362955</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>360386; 377325</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>368754; 383249</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>453242; 468303</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>674576; 700649</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>702988; 730953</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>716961; 740184</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>739250; 765023</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>192281</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>207548</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>200362</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>172581</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>189563</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>213654</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>215095</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>203586</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>381844</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>421202</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>415457</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>376167</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>182942; 197534</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>202137; 211546</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>191354; 206065</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>168251; 175664</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>179023; 196650</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>207810; 217569</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>209791; 217705</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>199731; 205682</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>370311; 391729</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>412950; 426172</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>405213; 422072</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>370540; 380325</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>254616</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>261570</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>250022</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>263856</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>269007</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>272246</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>269310</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>251051</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>523623</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>533816</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>519332</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>514907</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>246118; 261402</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>250882; 267585</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>240222; 256403</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>259791; 266840</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>261273; 273281</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>264191; 276992</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>264242; 272170</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>246798; 253601</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>512835; 532001</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>520658; 541964</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>508338; 526364</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>509485; 519192</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1176</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1214</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1505</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>595538</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>636539</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>609222</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>599383</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>612168</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>673075</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>653296</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>824415</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1207706</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1309614</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1262518</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1423799</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>584800; 602399</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>623056; 645934</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>592534; 621264</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>582111; 608918</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>600861; 620600</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>660927; 681218</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>641747; 663668</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>808478; 838566</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1193758; 1219992</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1293117; 1322926</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1243545; 1277663</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1401804; 1442780</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1415</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1428</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>722728</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>749251</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>740035</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>902799</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>735047</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>795556</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>788151</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>687006</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1457775</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1544807</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1528186</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1589806</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>713034; 730124</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>734554; 759906</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>726058; 751063</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>888590; 918327</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>719658; 748057</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>781483; 806151</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>773149; 799345</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>676912; 694695</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1440589; 1472662</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1524682; 1560722</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1508665; 1543955</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1572105; 1611042</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>3073</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3078</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>3247</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>3188</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>3217</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>6223</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>6258</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>6295</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>8441</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>3130219</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3263096</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>3225373</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>3340866</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>3223430</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>3428447</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>3414408</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>3553187</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>6353647</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>6691543</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>6639782</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>6894053</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>3104184; 3152618</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3230977; 3286587</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>3195178; 3251103</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>3313703; 3368767</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3198770; 3247499</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>3401956; 3451750</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>3392445; 3436861</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>3530609; 3575358</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>6319080; 6387327</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>6656193; 6726464</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>6599057; 6671207</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>6859215; 6928461</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>